--- a/INTLINE/data/142/STANOR/10799 Annual non-financial sector accounts. Income expenditure and saving.xlsx
+++ b/INTLINE/data/142/STANOR/10799 Annual non-financial sector accounts. Income expenditure and saving.xlsx
@@ -200,7 +200,7 @@
     <x:t>Current prices:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220302 08:00</x:t>
+    <x:t>20220601 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1068,7 +1068,7 @@
         <x:v>2845507</x:v>
       </x:c>
       <x:c r="AT5" s="3" t="n">
-        <x:v>3594950</x:v>
+        <x:v>3583296</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:46">
